--- a/data/test_info/test_schedule.xlsx
+++ b/data/test_info/test_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/hoang_t_le_student_uts_edu_au/Documents/HDR/Papers/Dependability/Coding/sensor-reliability/data/test_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D5F19C3-F3A8-4CC0-B31C-62EF895814ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{3D5F19C3-F3A8-4CC0-B31C-62EF895814ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0015FB9-F778-4952-89B8-E2B48B7E6A1F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{062793BC-E52F-455E-9AB8-4EF7405CCCAB}"/>
+    <workbookView xWindow="3552" yWindow="2940" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{062793BC-E52F-455E-9AB8-4EF7405CCCAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Fault-Voltage" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>DEPENDABILITY</t>
   </si>
@@ -74,16 +74,52 @@
   </si>
   <si>
     <t>DSI Component</t>
+  </si>
+  <si>
+    <t>Mist</t>
+  </si>
+  <si>
+    <t>F_D</t>
+  </si>
+  <si>
+    <t>feat_norm</t>
+  </si>
+  <si>
+    <t>feat_fault_mist</t>
+  </si>
+  <si>
+    <t>sampling</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Relative base measurements</t>
+  </si>
+  <si>
+    <t>pm_1.0</t>
+  </si>
+  <si>
+    <t>pm_2.5</t>
+  </si>
+  <si>
+    <t>pm_10.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,9 +167,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,7 +207,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -277,7 +313,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,27 +499,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F6FCD8-BD63-4587-9ABD-D3A79FBB83D2}">
   <dimension ref="A1:H9"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="2">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB797A5-D6DD-45DC-84FC-2490CC3BC150}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -508,100 +659,55 @@
       <c r="H5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>45390</v>
-      </c>
-      <c r="B6">
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="2">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E8" s="2">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
       <c r="H8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>2</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB797A5-D6DD-45DC-84FC-2490CC3BC150}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -686,6 +792,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BCBDEE54CAB4F54F91B97CB643BE34E9" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a14bbd27179ef3ac05ef0fa1283a5dd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1e4f17da-4a39-4753-be17-8b918eb625d8" xmlns:ns4="6ad41d25-f827-4223-8418-e59086bcedfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f775a7c65d04913b97e2fbd7af90859" ns3:_="" ns4:_="">
     <xsd:import namespace="1e4f17da-4a39-4753-be17-8b918eb625d8"/>
@@ -938,15 +1053,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -956,6 +1062,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F268561-4AB7-41B3-AC0A-9F592FAF6266}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69B52E78-EB1C-4779-BCBA-C02F374FF50B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -974,14 +1088,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F268561-4AB7-41B3-AC0A-9F592FAF6266}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9791496-DC39-45C3-9FEE-936B95D6DEB6}">
   <ds:schemaRefs>
